--- a/eeuuAnalysis/eeuuAnalysis.xlsx
+++ b/eeuuAnalysis/eeuuAnalysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>std ($/200media)</t>
+          <t>desvio ($/200media)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -462,45 +462,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9327997133439597</v>
+        <v>0.9542463252951378</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.266089233076313</v>
+        <v>42.02133713945131</v>
       </c>
       <c r="D2" t="n">
-        <v>41.69510512827801</v>
+        <v>-1.098849922273934</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.302038499951282</v>
+        <v>1.175842304054456</v>
       </c>
       <c r="C3" t="n">
-        <v>3.297698213900161</v>
+        <v>70.2347054836018</v>
       </c>
       <c r="D3" t="n">
-        <v>80.80007628442087</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>AMZN</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1.238340856309659</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8961911705142136</v>
-      </c>
-      <c r="D4" t="n">
-        <v>73.53350185371272</v>
+        <v>0.8184572707958198</v>
       </c>
     </row>
   </sheetData>
